--- a/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>STRG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +752,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +790,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +828,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +850,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +882,17 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +920,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +958,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +996,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +1015,11 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -967,8 +1047,17 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -996,8 +1085,17 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1107,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1139,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1058,17 +1168,26 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1215,17 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,8 +1253,17 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1291,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1329,17 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1212,8 +1367,17 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1241,8 +1405,17 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1443,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1481,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1519,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1557,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,8 +1595,17 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,8 +1633,17 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1671,17 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,42 +1709,60 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1774,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1790,11 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1559,11 +1819,20 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1860,17 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1898,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,16 +1936,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1675,11 +1971,20 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1704,11 +2009,20 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +2050,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1759,14 +2082,23 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2126,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2164,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2202,17 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2240,17 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2278,17 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1936,11 +2313,20 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2338,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,25 +2354,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -1994,8 +2386,17 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,11 +2421,20 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2462,17 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2078,11 +2497,20 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2538,17 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2576,17 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2614,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2652,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2690,17 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2252,11 +2725,20 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2750,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2782,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2820,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2858,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,13 +2896,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
@@ -2410,11 +2931,20 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2972,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +3010,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +3048,17 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2526,11 +3083,20 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +3124,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,8 +3205,17 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3227,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2651,20 +3247,29 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3297,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3335,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3373,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3411,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3449,17 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3487,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3509,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3579,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3617,17 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3655,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3677,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3709,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3747,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3785,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3823,17 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3861,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3899,17 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3935,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>STRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,8 +1044,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,8 +1214,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,8 +1264,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,8 +1387,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,8 +1428,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,8 +1674,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,8 +1756,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1828,11 +1915,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,8 +2055,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1980,11 +2079,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2018,11 +2120,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2091,14 +2199,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2322,11 +2448,14 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,11 +2564,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2608,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2506,11 +2646,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2734,11 +2892,14 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,8 +3076,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2914,7 +3088,7 @@
         <v>-100</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2940,11 +3114,14 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,8 +3240,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3092,11 +3278,14 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,51 +3322,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3256,8 +3455,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>STRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1254,8 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,13 +1439,16 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1431,13 +1483,16 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,13 +1747,16 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,13 +1835,16 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1918,11 +2005,14 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,19 +2140,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2082,11 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2123,11 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,13 +2272,16 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2202,37 +2310,40 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,13 +2536,16 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2451,11 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2499,20 +2630,20 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2529,13 +2660,16 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2567,11 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,13 +2748,16 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2649,11 +2789,14 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -2895,11 +3053,14 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3091,7 +3265,7 @@
         <v>-100</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -3117,11 +3291,14 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3281,11 +3467,14 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,59 +3514,65 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3458,8 +3657,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,22 +4083,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3879,8 +4109,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4321,16 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>STRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1142,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,8 +1293,8 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1490,16 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1486,13 +1537,16 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,13 +1819,16 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1913,16 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2008,11 +2094,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,25 +2238,28 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2184,11 +2282,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,11 +2329,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2379,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2313,22 +2420,25 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2345,8 +2455,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,7 +2673,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2580,11 +2705,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2633,20 +2763,20 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2663,17 +2793,20 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2704,11 +2837,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,7 +2899,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2792,11 +2931,14 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3169,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,7 +3181,7 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -3056,11 +3213,14 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3268,7 +3441,7 @@
         <v>-100</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -3294,11 +3467,14 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3611,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -3470,11 +3655,14 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3705,68 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3660,8 +3858,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4312,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,17 +4566,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4368,31 +4613,34 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>STRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1296,8 +1333,8 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2097,11 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,16 +2337,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2261,8 +2360,8 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2285,11 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2332,11 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2423,14 +2531,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2440,8 +2551,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2458,8 +2569,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2676,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2708,11 +2834,14 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2766,20 +2897,20 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,11 +2939,11 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2840,11 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2902,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2934,11 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3184,7 +3342,7 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3216,11 +3374,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3618,7 @@
         <v>-100</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -3470,11 +3644,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,7 +3809,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3658,11 +3844,14 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,37 +4542,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,11 +4824,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4616,16 +4862,19 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
@@ -4642,8 +4891,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
